--- a/data/trans_orig/POLIMEDICACION-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/POLIMEDICACION-Estudios-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polimedicación (5 o más medicamentos) en País Vasco</t>
+          <t>Polimedicación (5 o más medicamentos) en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polimedicación (5 o más medicamentos) en Andalucia</t>
+          <t>Polimedicación (5 o más medicamentos) en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polimedicación (5 o más medicamentos) en C.Valenciana</t>
+          <t>Polimedicación (5 o más medicamentos) en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/POLIMEDICACION-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/POLIMEDICACION-Estudios-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10703</t>
+          <t>9107</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8137</t>
+          <t>7049</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13834</t>
+          <t>11746</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18369</t>
+          <t>16501</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15430</t>
+          <t>13590</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>22523</t>
+          <t>19817</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>29072</t>
+          <t>25608</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>24233</t>
+          <t>22133</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>33407</t>
+          <t>29563</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>14,49%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77361</t>
+          <t>73435</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>74230</t>
+          <t>70796</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>79927</t>
+          <t>75493</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>87,85%</t>
+          <t>88,97%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,29%</t>
+          <t>85,77%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>90,76%</t>
+          <t>91,46%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>109375</t>
+          <t>104951</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>105221</t>
+          <t>101635</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>112314</t>
+          <t>107862</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>85,62%</t>
+          <t>86,41%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>82,37%</t>
+          <t>83,68%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>87,92%</t>
+          <t>88,81%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>186737</t>
+          <t>178386</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>182402</t>
+          <t>174431</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>191576</t>
+          <t>181861</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>86,53%</t>
+          <t>87,45%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>84,52%</t>
+          <t>85,51%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>88,77%</t>
+          <t>89,15%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32681</t>
+          <t>29625</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28406</t>
+          <t>25428</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>38268</t>
+          <t>34570</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29791</t>
+          <t>28219</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25488</t>
+          <t>24120</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>35006</t>
+          <t>32672</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>62472</t>
+          <t>57844</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>55917</t>
+          <t>51622</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>69106</t>
+          <t>64198</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>7,09%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>420810</t>
+          <t>432054</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>415223</t>
+          <t>427109</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>425085</t>
+          <t>436251</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>92,79%</t>
+          <t>93,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,56%</t>
+          <t>92,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>94,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>402011</t>
+          <t>416138</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>396796</t>
+          <t>411685</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>406314</t>
+          <t>420237</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,1%</t>
+          <t>93,65%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,89%</t>
+          <t>92,65%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>94,1%</t>
+          <t>94,57%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>822821</t>
+          <t>848191</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>816187</t>
+          <t>841837</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>829376</t>
+          <t>854413</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>93,62%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>92,91%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>94,3%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3007</t>
+          <t>3639</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1932</t>
+          <t>2282</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4534</t>
+          <t>5608</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2874</t>
+          <t>3237</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1847</t>
+          <t>1956</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4589</t>
+          <t>5070</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,17 +1491,17 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>5881</t>
+          <t>6876</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4243</t>
+          <t>5046</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>8113</t>
+          <t>9566</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1511,12 +1511,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,37%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>148618</t>
+          <t>171922</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>147091</t>
+          <t>169953</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>149693</t>
+          <t>173279</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,01%</t>
+          <t>96,81%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,73%</t>
+          <t>98,7%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>191363</t>
+          <t>224757</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>189648</t>
+          <t>222924</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>192390</t>
+          <t>226038</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>98,58%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>97,64%</t>
+          <t>97,78%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,05%</t>
+          <t>99,14%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>339982</t>
+          <t>396679</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>337750</t>
+          <t>393989</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>341620</t>
+          <t>398509</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1624,12 +1624,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,65%</t>
+          <t>97,63%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,77%</t>
+          <t>98,75%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46391</t>
+          <t>42371</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>40700</t>
+          <t>37471</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>53301</t>
+          <t>48405</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>51033</t>
+          <t>47957</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>45537</t>
+          <t>42809</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>57793</t>
+          <t>53907</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>97424</t>
+          <t>90328</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>89003</t>
+          <t>82883</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>106149</t>
+          <t>98701</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>6,52%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>646790</t>
+          <t>677410</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>639880</t>
+          <t>671376</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>652481</t>
+          <t>682310</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>93,31%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,31%</t>
+          <t>93,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>94,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>702751</t>
+          <t>745846</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>695991</t>
+          <t>739896</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>708247</t>
+          <t>750994</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,33%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,96%</t>
+          <t>94,61%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1349541</t>
+          <t>1423256</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1340816</t>
+          <t>1414883</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1357962</t>
+          <t>1430701</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,27%</t>
+          <t>94,03%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,66%</t>
+          <t>93,48%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>93,85%</t>
+          <t>94,52%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2351,12 +2351,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20122</t>
+          <t>19840</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36456</t>
+          <t>36993</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2366,12 +2366,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2386,12 +2386,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>92981</t>
+          <t>92029</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>122121</t>
+          <t>120589</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2401,12 +2401,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>23,29%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>30,91%</t>
+          <t>30,52%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>114739</t>
+          <t>116955</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>149475</t>
+          <t>152258</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2436,12 +2436,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>24,42%</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>191841</t>
+          <t>191304</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>208175</t>
+          <t>208457</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,03%</t>
+          <t>83,8%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,19%</t>
+          <t>91,31%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>272969</t>
+          <t>274501</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>302109</t>
+          <t>303061</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2514,12 +2514,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>69,09%</t>
+          <t>69,48%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>76,47%</t>
+          <t>76,71%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>473912</t>
+          <t>471129</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>508648</t>
+          <t>506432</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>76,02%</t>
+          <t>75,58%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>81,59%</t>
+          <t>81,24%</t>
         </is>
       </c>
     </row>
@@ -2694,12 +2694,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22068</t>
+          <t>21638</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53611</t>
+          <t>53497</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>48955</t>
+          <t>46288</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>100578</t>
+          <t>100409</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -2764,12 +2764,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>82562</t>
+          <t>82276</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>145113</t>
+          <t>143861</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -2779,12 +2779,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>5,15%</t>
         </is>
       </c>
     </row>
@@ -2807,12 +2807,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1355782</t>
+          <t>1355896</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1387325</t>
+          <t>1387755</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,43%</t>
+          <t>98,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -2842,12 +2842,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1285233</t>
+          <t>1285402</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1336856</t>
+          <t>1339523</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,74%</t>
+          <t>92,75%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2650091</t>
+          <t>2651343</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2712642</t>
+          <t>2712928</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -2892,12 +2892,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,05%</t>
+          <t>97,06%</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7783</t>
+          <t>7649</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20755</t>
+          <t>19942</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3052,12 +3052,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15466</t>
+          <t>14762</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>29817</t>
+          <t>29926</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>25808</t>
+          <t>26231</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>44542</t>
+          <t>46299</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3122,12 +3122,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>5,13%</t>
         </is>
       </c>
     </row>
@@ -3150,12 +3150,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>439046</t>
+          <t>439859</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>452018</t>
+          <t>452152</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3165,12 +3165,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,49%</t>
+          <t>95,66%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,31%</t>
+          <t>98,34%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -3185,12 +3185,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>413557</t>
+          <t>413448</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>427908</t>
+          <t>428612</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3200,12 +3200,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>93,28%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,51%</t>
+          <t>96,67%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -3220,12 +3220,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>858633</t>
+          <t>856876</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>877367</t>
+          <t>876944</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,07%</t>
+          <t>94,87%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>97,1%</t>
         </is>
       </c>
     </row>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52261</t>
+          <t>52446</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>97387</t>
+          <t>98668</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3395,12 +3395,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>150980</t>
+          <t>149941</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>241144</t>
+          <t>238147</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3430,12 +3430,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3450,12 +3450,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>216250</t>
+          <t>228974</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>326156</t>
+          <t>326169</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3465,7 +3465,7 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
@@ -3493,12 +3493,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2000104</t>
+          <t>1998823</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2045230</t>
+          <t>2045045</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3508,12 +3508,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,51%</t>
+          <t>97,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1983132</t>
+          <t>1986129</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2073296</t>
+          <t>2074335</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>89,16%</t>
+          <t>89,29%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,21%</t>
+          <t>93,26%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -3563,12 +3563,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>3995610</t>
+          <t>3995597</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4105516</t>
+          <t>4092792</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -3583,7 +3583,7 @@
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,0%</t>
+          <t>94,7%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/POLIMEDICACION-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/POLIMEDICACION-Estudios-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polimedicación (5 o más medicamentos) en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Polimedicación (5 o más medicamentos) en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9107</t>
+          <t>29908</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7049</t>
+          <t>21610</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11746</t>
+          <t>40321</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16501</t>
+          <t>110547</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>13590</t>
+          <t>97054</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>19817</t>
+          <t>125589</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>25,55%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>22,44%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>29,03%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>226</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>25608</t>
+          <t>140455</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>22133</t>
+          <t>123603</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>29563</t>
+          <t>158960</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>14,49%</t>
+          <t>23,11%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>249</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>73435</t>
+          <t>225484</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70796</t>
+          <t>215071</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75493</t>
+          <t>233782</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>88,97%</t>
+          <t>88,29%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,77%</t>
+          <t>84,21%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,46%</t>
+          <t>91,54%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>510</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>104951</t>
+          <t>322050</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>101635</t>
+          <t>307008</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>107862</t>
+          <t>335543</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>86,41%</t>
+          <t>74,45%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>83,68%</t>
+          <t>70,97%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>88,81%</t>
+          <t>77,56%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>759</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>178386</t>
+          <t>547534</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>174431</t>
+          <t>529029</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>181861</t>
+          <t>564386</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>87,45%</t>
+          <t>79,58%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>85,51%</t>
+          <t>76,89%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>89,15%</t>
+          <t>82,03%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>695</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>985</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687989</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687989</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687989</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29625</t>
+          <t>40123</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25428</t>
+          <t>29111</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34570</t>
+          <t>51708</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28219</t>
+          <t>87081</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24120</t>
+          <t>74338</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32672</t>
+          <t>103551</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>192</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>57844</t>
+          <t>127204</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>51622</t>
+          <t>108933</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>64198</t>
+          <t>143971</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>5,63%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2474</t>
+          <t>1061</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>432054</t>
+          <t>1247564</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>427109</t>
+          <t>1235979</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>436251</t>
+          <t>1258576</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>93,58%</t>
+          <t>96,88%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,51%</t>
+          <t>95,98%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,49%</t>
+          <t>97,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2333</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>416138</t>
+          <t>1183660</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>411685</t>
+          <t>1167190</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>420237</t>
+          <t>1196403</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,65%</t>
+          <t>93,15%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,65%</t>
+          <t>91,85%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>94,57%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>4807</t>
+          <t>2558</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>848191</t>
+          <t>2431224</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>841837</t>
+          <t>2414457</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>854413</t>
+          <t>2449495</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>93,62%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,91%</t>
+          <t>94,37%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>94,3%</t>
+          <t>95,74%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5150</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3639</t>
+          <t>13651</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2282</t>
+          <t>8341</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5608</t>
+          <t>21209</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3237</t>
+          <t>25406</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1956</t>
+          <t>17788</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5070</t>
+          <t>35254</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>56</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>6876</t>
+          <t>39057</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>5046</t>
+          <t>30291</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>9566</t>
+          <t>51977</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>5,17%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>469</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>171922</t>
+          <t>496228</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>169953</t>
+          <t>488670</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>173279</t>
+          <t>501538</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>97,32%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,81%</t>
+          <t>95,84%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,7%</t>
+          <t>98,36%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1180</t>
+          <t>628</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>224757</t>
+          <t>470500</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>222924</t>
+          <t>460652</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>226038</t>
+          <t>478118</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,58%</t>
+          <t>94,88%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,14%</t>
+          <t>96,41%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2065</t>
+          <t>1097</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>396679</t>
+          <t>966729</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>393989</t>
+          <t>953809</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>398509</t>
+          <t>975495</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,3%</t>
+          <t>96,12%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,63%</t>
+          <t>94,83%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>96,99%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>42371</t>
+          <t>83682</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>37471</t>
+          <t>68999</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>48405</t>
+          <t>103110</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>365</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>47957</t>
+          <t>223034</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>42809</t>
+          <t>201623</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>53907</t>
+          <t>248107</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>474</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>90328</t>
+          <t>306716</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>82883</t>
+          <t>280615</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>98701</t>
+          <t>336746</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>7,92%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3804</t>
+          <t>1779</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>677410</t>
+          <t>1969277</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>671376</t>
+          <t>1949849</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>682310</t>
+          <t>1983960</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,11%</t>
+          <t>95,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,28%</t>
+          <t>94,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,79%</t>
+          <t>96,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4163</t>
+          <t>2635</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>745846</t>
+          <t>1976210</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>739896</t>
+          <t>1951137</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>750994</t>
+          <t>1997621</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,96%</t>
+          <t>89,86%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,21%</t>
+          <t>88,72%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,61%</t>
+          <t>90,83%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>7967</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1423256</t>
+          <t>3945487</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1414883</t>
+          <t>3915457</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1430701</t>
+          <t>3971588</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,03%</t>
+          <t>92,79%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,48%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,52%</t>
+          <t>93,4%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>1888</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052959</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052959</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052959</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2199244</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2199244</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2199244</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8514</t>
+          <t>4888</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4252203</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4252203</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4252203</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polimedicación (5 o más medicamentos) en Andalucia (tasa de respuesta: 99,9%)</t>
+          <t>Polimedicación (5 o más medicamentos) en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2341,107 +2341,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>27372</t>
+          <t>17552</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19840</t>
+          <t>12859</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36993</t>
+          <t>23237</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>104953</t>
+          <t>48512</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>92029</t>
+          <t>40984</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>120589</t>
+          <t>57667</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>30,52%</t>
+          <t>21,07%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>187</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>132325</t>
+          <t>66064</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>116955</t>
+          <t>56976</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>152258</t>
+          <t>76136</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>24,42%</t>
+          <t>15,55%</t>
         </is>
       </c>
     </row>
@@ -2454,107 +2454,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>498</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>200925</t>
+          <t>198244</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>191304</t>
+          <t>192559</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>208457</t>
+          <t>202937</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>88,01%</t>
+          <t>91,87%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>83,8%</t>
+          <t>89,23%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,31%</t>
+          <t>94,04%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>290137</t>
+          <t>225169</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>274501</t>
+          <t>216014</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>303061</t>
+          <t>232697</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>73,44%</t>
+          <t>82,27%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>69,48%</t>
+          <t>78,93%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>76,71%</t>
+          <t>85,02%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>491062</t>
+          <t>423414</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>471129</t>
+          <t>413342</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>506432</t>
+          <t>432502</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>78,77%</t>
+          <t>86,5%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>75,58%</t>
+          <t>84,45%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>81,24%</t>
+          <t>88,36%</t>
         </is>
       </c>
     </row>
@@ -2567,22 +2567,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2602,22 +2602,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>644</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -2637,22 +2637,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>623387</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>623387</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>623387</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -2684,107 +2684,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>38616</t>
+          <t>23837</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21638</t>
+          <t>18168</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53497</t>
+          <t>32908</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>77660</t>
+          <t>52577</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>46288</t>
+          <t>43721</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>100409</t>
+          <t>63519</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>172</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>116277</t>
+          <t>76414</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>82276</t>
+          <t>65567</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>143861</t>
+          <t>89218</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,16%</t>
         </is>
       </c>
     </row>
@@ -2797,107 +2797,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>1577</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1370777</t>
+          <t>838181</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1355896</t>
+          <t>829110</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1387755</t>
+          <t>843850</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,26%</t>
+          <t>97,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,46%</t>
+          <t>97,89%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>1410</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1308151</t>
+          <t>815603</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1285402</t>
+          <t>804661</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1339523</t>
+          <t>824459</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,4%</t>
+          <t>93,94%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,75%</t>
+          <t>92,68%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>94,96%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2558</t>
+          <t>2987</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2678927</t>
+          <t>1653784</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2651343</t>
+          <t>1640980</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2712928</t>
+          <t>1664631</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,84%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>94,84%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,06%</t>
+          <t>96,21%</t>
         </is>
       </c>
     </row>
@@ -2910,22 +2910,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2945,22 +2945,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>1523</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -2980,22 +2980,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>3159</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3027,107 +3027,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12573</t>
+          <t>3420</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7649</t>
+          <t>1725</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19942</t>
+          <t>6871</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21728</t>
+          <t>8648</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14762</t>
+          <t>5200</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>29926</t>
+          <t>14731</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>28</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>34301</t>
+          <t>12068</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>26231</t>
+          <t>7787</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>46299</t>
+          <t>18482</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>2,32%</t>
         </is>
       </c>
     </row>
@@ -3140,107 +3140,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>644</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>447228</t>
+          <t>375133</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>439859</t>
+          <t>371682</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>452152</t>
+          <t>376828</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,66%</t>
+          <t>98,18%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,34%</t>
+          <t>99,54%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>683</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>421646</t>
+          <t>408227</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>413448</t>
+          <t>402144</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>428612</t>
+          <t>411675</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,1%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>96,47%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,67%</t>
+          <t>98,75%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1097</t>
+          <t>1327</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>868874</t>
+          <t>783360</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>856876</t>
+          <t>776946</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>876944</t>
+          <t>787641</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,87%</t>
+          <t>97,68%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,1%</t>
+          <t>99,02%</t>
         </is>
       </c>
     </row>
@@ -3253,22 +3253,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>655</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3288,22 +3288,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>700</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3323,22 +3323,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3370,107 +3370,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>125</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78561</t>
+          <t>44809</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52446</t>
+          <t>37075</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>98668</t>
+          <t>55518</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>262</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>204342</t>
+          <t>109737</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>149941</t>
+          <t>95671</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>238147</t>
+          <t>123484</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>387</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>282903</t>
+          <t>154546</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>228974</t>
+          <t>136880</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>326169</t>
+          <t>171050</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>5,67%</t>
         </is>
       </c>
     </row>
@@ -3483,107 +3483,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1779</t>
+          <t>2719</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2018930</t>
+          <t>1411558</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1998823</t>
+          <t>1400849</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2045045</t>
+          <t>1419292</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,25%</t>
+          <t>96,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,3%</t>
+          <t>96,19%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,5%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2635</t>
+          <t>2605</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2019934</t>
+          <t>1449000</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1986129</t>
+          <t>1435253</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2074335</t>
+          <t>1463066</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>90,81%</t>
+          <t>92,96%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>89,29%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>93,86%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4414</t>
+          <t>5324</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>4038863</t>
+          <t>2860558</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>3995597</t>
+          <t>2844054</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4092792</t>
+          <t>2878224</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,45%</t>
+          <t>94,87%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,45%</t>
+          <t>94,33%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,7%</t>
+          <t>95,46%</t>
         </is>
       </c>
     </row>
@@ -3596,22 +3596,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1888</t>
+          <t>2844</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2097491</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2097491</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2097491</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -3631,22 +3631,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>2867</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2224276</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2224276</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2224276</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -3666,22 +3666,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4888</t>
+          <t>5711</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>4321766</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4321766</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>4321766</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polimedicación (5 o más medicamentos) en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Polimedicación (5 o más medicamentos) en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3952,107 +3952,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17552</t>
+          <t>9107</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12859</t>
+          <t>7049</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23237</t>
+          <t>11746</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>105</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>48512</t>
+          <t>16501</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>40984</t>
+          <t>13590</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>57667</t>
+          <t>19817</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>163</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>66064</t>
+          <t>25608</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>56976</t>
+          <t>22133</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>76136</t>
+          <t>29563</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>14,49%</t>
         </is>
       </c>
     </row>
@@ -4065,107 +4065,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>445</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>198244</t>
+          <t>73435</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>192559</t>
+          <t>70796</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>202937</t>
+          <t>75493</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>88,97%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>89,23%</t>
+          <t>85,77%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,04%</t>
+          <t>91,46%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>650</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>225169</t>
+          <t>104951</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>216014</t>
+          <t>101635</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>232697</t>
+          <t>107862</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>82,27%</t>
+          <t>86,41%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>78,93%</t>
+          <t>83,68%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>85,02%</t>
+          <t>88,81%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>1095</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>423414</t>
+          <t>178386</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>413342</t>
+          <t>174431</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>432502</t>
+          <t>181861</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>86,5%</t>
+          <t>87,45%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>84,45%</t>
+          <t>85,51%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>88,36%</t>
+          <t>89,15%</t>
         </is>
       </c>
     </row>
@@ -4178,22 +4178,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>503</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4213,22 +4213,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>755</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4248,22 +4248,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4295,107 +4295,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23837</t>
+          <t>29625</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18168</t>
+          <t>25428</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32908</t>
+          <t>34570</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>170</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>52577</t>
+          <t>28219</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>43721</t>
+          <t>24120</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>63519</t>
+          <t>32672</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>343</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>76414</t>
+          <t>57844</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>65567</t>
+          <t>51622</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>89218</t>
+          <t>64198</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>7,09%</t>
         </is>
       </c>
     </row>
@@ -4408,107 +4408,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1577</t>
+          <t>2474</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>838181</t>
+          <t>432054</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>829110</t>
+          <t>427109</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>843850</t>
+          <t>436251</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,23%</t>
+          <t>93,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>92,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>94,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1410</t>
+          <t>2333</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>815603</t>
+          <t>416138</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>804661</t>
+          <t>411685</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>824459</t>
+          <t>420237</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>93,65%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>92,65%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>94,96%</t>
+          <t>94,57%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2987</t>
+          <t>4807</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>1653784</t>
+          <t>848191</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1640980</t>
+          <t>841837</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1664631</t>
+          <t>854413</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>93,62%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>92,91%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>94,3%</t>
         </is>
       </c>
     </row>
@@ -4521,22 +4521,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>2647</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4556,22 +4556,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4591,22 +4591,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>3159</t>
+          <t>5150</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4638,107 +4638,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3420</t>
+          <t>3639</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1725</t>
+          <t>2282</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6871</t>
+          <t>5608</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8648</t>
+          <t>3237</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5200</t>
+          <t>1956</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14731</t>
+          <t>5070</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>6876</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>5046</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>9566</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
           <t>1,25%</t>
         </is>
       </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>3,53%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>12068</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>7787</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>18482</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>1,52%</t>
-        </is>
-      </c>
-      <c r="V10" s="2" t="inlineStr">
-        <is>
-          <t>0,98%</t>
-        </is>
-      </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,37%</t>
         </is>
       </c>
     </row>
@@ -4751,107 +4751,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>885</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>375133</t>
+          <t>171922</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>371682</t>
+          <t>169953</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>376828</t>
+          <t>173279</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>96,81%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,54%</t>
+          <t>98,7%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>1180</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>408227</t>
+          <t>224757</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>402144</t>
+          <t>222924</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>411675</t>
+          <t>226038</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>98,58%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>97,78%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
+          <t>99,14%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>2065</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>396679</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>393989</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>398509</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>98,3%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>97,63%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
           <t>98,75%</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>1327</t>
-        </is>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>783360</t>
-        </is>
-      </c>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>776946</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="inlineStr">
-        <is>
-          <t>787641</t>
-        </is>
-      </c>
-      <c r="U11" s="2" t="inlineStr">
-        <is>
-          <t>98,48%</t>
-        </is>
-      </c>
-      <c r="V11" s="2" t="inlineStr">
-        <is>
-          <t>97,68%</t>
-        </is>
-      </c>
-      <c r="W11" s="2" t="inlineStr">
-        <is>
-          <t>99,02%</t>
         </is>
       </c>
     </row>
@@ -4864,22 +4864,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>907</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4899,22 +4899,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4934,22 +4934,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4981,107 +4981,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>253</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>44809</t>
+          <t>42371</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>37075</t>
+          <t>37471</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>55518</t>
+          <t>48405</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>294</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>109737</t>
+          <t>47957</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>95671</t>
+          <t>42809</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>123484</t>
+          <t>53907</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>547</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>154546</t>
+          <t>90328</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>136880</t>
+          <t>82883</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>171050</t>
+          <t>98701</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>6,52%</t>
         </is>
       </c>
     </row>
@@ -5094,107 +5094,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2719</t>
+          <t>3804</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1411558</t>
+          <t>677410</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1400849</t>
+          <t>671376</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1419292</t>
+          <t>682310</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,92%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,19%</t>
+          <t>93,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>94,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2605</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1449000</t>
+          <t>745846</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1435253</t>
+          <t>739896</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1463066</t>
+          <t>750994</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>92,96%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,08%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,86%</t>
+          <t>94,61%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>5324</t>
+          <t>7967</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2860558</t>
+          <t>1423256</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2844054</t>
+          <t>1414883</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>2878224</t>
+          <t>1430701</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,87%</t>
+          <t>94,03%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,33%</t>
+          <t>93,48%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,46%</t>
+          <t>94,52%</t>
         </is>
       </c>
     </row>
@@ -5207,22 +5207,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2844</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5242,22 +5242,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2867</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5277,22 +5277,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>5711</t>
+          <t>8514</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
